--- a/AVS Labs Credentials.xlsx
+++ b/AVS Labs Credentials.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jajindri\source\repos\MicroHack-AVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{C9FC6D63-185D-4816-A8C4-A1CFD51447A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AE4A8E-1692-4E46-9694-5B95A0CEFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25200" windowHeight="16160" xr2:uid="{E3885CD6-7FC6-48A8-A687-6160BE33F5F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25200" windowHeight="16160" xr2:uid="{92DAB9B8-766E-4AE1-9F6D-17C4F7199BFB}"/>
   </bookViews>
   <sheets>
-    <sheet name="main sheet" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>Azure</t>
   </si>
@@ -72,7 +71,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,154 +139,154 @@
     <t>user11@MngEnvMCAP487808.onmicrosoft.com</t>
   </si>
   <si>
+    <t>administrator@avs.lab</t>
+  </si>
+  <si>
+    <t>10.128.11.129/25</t>
+  </si>
+  <si>
+    <t>10.128.11.1/25</t>
+  </si>
+  <si>
+    <t>team12</t>
+  </si>
+  <si>
+    <t>user12@MngEnvMCAP487808.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.12.129/25</t>
+  </si>
+  <si>
+    <t>10.128.12.1/25</t>
+  </si>
+  <si>
+    <t>team13</t>
+  </si>
+  <si>
+    <t>user13@MngEnvMCAP487808.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.13.129/25</t>
+  </si>
+  <si>
+    <t>10.128.13.1/25</t>
+  </si>
+  <si>
+    <t>team14</t>
+  </si>
+  <si>
+    <t>user14@MngEnvMCAP487808.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.14.129/25</t>
+  </si>
+  <si>
+    <t>10.128.14.1/25</t>
+  </si>
+  <si>
+    <t>team21</t>
+  </si>
+  <si>
+    <t>user21@MngEnvMCAP872133.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.21.129/25</t>
+  </si>
+  <si>
+    <t>10.128.21.1/25</t>
+  </si>
+  <si>
+    <t>team22</t>
+  </si>
+  <si>
+    <t>user22@MngEnvMCAP872133.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.22.129/25</t>
+  </si>
+  <si>
+    <t>10.128.22.1/25</t>
+  </si>
+  <si>
+    <t>team23</t>
+  </si>
+  <si>
+    <t>user23@MngEnvMCAP872133.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.23.129/25</t>
+  </si>
+  <si>
+    <t>10.128.23.1/25</t>
+  </si>
+  <si>
+    <t>team24</t>
+  </si>
+  <si>
+    <t>user24@MngEnvMCAP872133.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.24.129/25</t>
+  </si>
+  <si>
+    <t>10.128.24.1/25</t>
+  </si>
+  <si>
+    <t>team31</t>
+  </si>
+  <si>
+    <t>user31@MngEnvMCAP637005.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.31.129/25</t>
+  </si>
+  <si>
+    <t>10.128.31.1/25</t>
+  </si>
+  <si>
+    <t>team32</t>
+  </si>
+  <si>
+    <t>user32@MngEnvMCAP637005.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.32.129/25</t>
+  </si>
+  <si>
+    <t>10.128.32.1/25</t>
+  </si>
+  <si>
+    <t>team33</t>
+  </si>
+  <si>
+    <t>user33@MngEnvMCAP637005.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.33.129/25</t>
+  </si>
+  <si>
+    <t>10.128.33.1/25</t>
+  </si>
+  <si>
+    <t>team34</t>
+  </si>
+  <si>
+    <t>user34@MngEnvMCAP637005.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>10.128.34.129/25</t>
+  </si>
+  <si>
+    <t>10.128.34.1/25</t>
+  </si>
+  <si>
+    <t>team41</t>
+  </si>
+  <si>
+    <t>user41</t>
+  </si>
+  <si>
     <t>MSFTavs1!</t>
-  </si>
-  <si>
-    <t>administrator@avs.lab</t>
-  </si>
-  <si>
-    <t>10.128.11.129/25</t>
-  </si>
-  <si>
-    <t>10.128.11.1/25</t>
-  </si>
-  <si>
-    <t>team12</t>
-  </si>
-  <si>
-    <t>user12@MngEnvMCAP487808.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.12.129/25</t>
-  </si>
-  <si>
-    <t>10.128.12.1/25</t>
-  </si>
-  <si>
-    <t>team13</t>
-  </si>
-  <si>
-    <t>user13@MngEnvMCAP487808.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.13.129/25</t>
-  </si>
-  <si>
-    <t>10.128.13.1/25</t>
-  </si>
-  <si>
-    <t>team14</t>
-  </si>
-  <si>
-    <t>user14@MngEnvMCAP487808.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.14.129/25</t>
-  </si>
-  <si>
-    <t>10.128.14.1/25</t>
-  </si>
-  <si>
-    <t>team21</t>
-  </si>
-  <si>
-    <t>user21@MngEnvMCAP872133.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.21.129/25</t>
-  </si>
-  <si>
-    <t>10.128.21.1/25</t>
-  </si>
-  <si>
-    <t>team22</t>
-  </si>
-  <si>
-    <t>user22@MngEnvMCAP872133.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.22.129/25</t>
-  </si>
-  <si>
-    <t>10.128.22.1/25</t>
-  </si>
-  <si>
-    <t>team23</t>
-  </si>
-  <si>
-    <t>user23@MngEnvMCAP872133.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.23.129/25</t>
-  </si>
-  <si>
-    <t>10.128.23.1/25</t>
-  </si>
-  <si>
-    <t>team24</t>
-  </si>
-  <si>
-    <t>user24@MngEnvMCAP872133.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.24.129/25</t>
-  </si>
-  <si>
-    <t>10.128.24.1/25</t>
-  </si>
-  <si>
-    <t>team31</t>
-  </si>
-  <si>
-    <t>user31@MngEnvMCAP637005.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.31.129/25</t>
-  </si>
-  <si>
-    <t>10.128.31.1/25</t>
-  </si>
-  <si>
-    <t>team32</t>
-  </si>
-  <si>
-    <t>user32@MngEnvMCAP637005.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.32.129/25</t>
-  </si>
-  <si>
-    <t>10.128.32.1/25</t>
-  </si>
-  <si>
-    <t>team33</t>
-  </si>
-  <si>
-    <t>user33@MngEnvMCAP637005.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.33.129/25</t>
-  </si>
-  <si>
-    <t>10.128.33.1/25</t>
-  </si>
-  <si>
-    <t>team34</t>
-  </si>
-  <si>
-    <t>user34@MngEnvMCAP637005.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>10.128.34.129/25</t>
-  </si>
-  <si>
-    <t>10.128.34.1/25</t>
-  </si>
-  <si>
-    <t>team41</t>
-  </si>
-  <si>
-    <t>user41</t>
   </si>
   <si>
     <t>10.128.41.129/25</t>
@@ -354,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Username: </t>
@@ -364,7 +363,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
       <t>avslab-admin</t>
@@ -378,42 +377,35 @@
   </si>
   <si>
     <t>https://software-static.download.prss.microsoft.com/sg/download/888969d5-f34g-4e03-ac9d-1f9786c66749/SERVER_EVAL_x64FRE_en-us.iso</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Azure (Portal) Username
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(AVS vCenter Credentials are  accessable within Azure Portal)</t>
-    </r>
-  </si>
-  <si>
-    <t>Pete Robertson</t>
-  </si>
-  <si>
-    <t>Phillip Jones</t>
-  </si>
-  <si>
-    <t>Scott Clifford</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -421,28 +413,50 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -450,69 +464,25 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,13 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,13 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,13 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,24 +554,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -660,6 +606,24 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -688,137 +652,114 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -940,11 +881,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCC00CC"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -957,70 +893,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E1401592-9C9B-476D-812C-23B10039F830}" name="Table4" displayName="Table4" ref="A2:X18" totalsRowShown="0">
-  <autoFilter ref="A2:X18" xr:uid="{E1401592-9C9B-476D-812C-23B10039F830}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0C3293C-518E-49B3-BB8F-DB282ECB52A1}" name="Table4" displayName="Table4" ref="A2:X18" totalsRowShown="0">
+  <autoFilter ref="A2:X18" xr:uid="{E0C3293C-518E-49B3-BB8F-DB282ECB52A1}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{293993D3-9135-4DA3-A61E-CCF022CE19B3}" name="Number" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{4D58C4CC-A61E-4201-AE06-C17163DD36DE}" name="Room" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A53873D1-32DB-483F-B564-64D197A24D71}" name="Group" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{D90BF315-0347-4D7A-BA15-8015D758F309}" name="Group Participant_x000a_ Number" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{E0028C0D-11F3-4348-A7CE-45F102478E96}" name="Participant">
+    <tableColumn id="1" xr3:uid="{ED52A4AD-13ED-46EA-89DA-1D909934BF57}" name="Number" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{73153F41-28A7-42E7-BCFD-586C02DAF280}" name="Room" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{88BA620D-DF3E-4C70-AF97-78206304AD45}" name="Group" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{16E92420-0885-439F-A988-A4A2B403D643}" name="Group Participant_x000a_ Number" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{8D00DA76-9412-4D8D-BD17-128170617B03}" name="Participant">
       <calculatedColumnFormula>LOWER(MID(Table4[[#This Row],[vCenter User]], FIND("@", Table4[[#This Row],[vCenter User]]) - 3, 1) &amp; MID(Table4[[#This Row],[Azure (Portal) Username
 (AVS vCenter Credentials are accessable within Azure Portal)]], 3, 1) &amp; LEFT(Table4[[#This Row],[vCenter User]]) &amp; LEFT(Table4[[#This Row],[Password]]) &amp; TEXT(Table4[[#This Row],[Group Participant
  Number]], "[$-cs-CZ]0;-0"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8BF0512B-523C-4D85-9643-629648C48D2D}" name="Azure (Portal) Username_x000a_(AVS vCenter Credentials are accessable within Azure Portal)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{8ABECF3F-A7ED-43E9-9369-DBB3AE29105D}" name="Password" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{7EEAB2E6-9AF6-4C0A-BC1B-6725EE7F519E}" name="vCenter IP" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{F47A8807-4B0F-4DD7-9C73-11843DF12355}" name="Azure (Portal) Username_x000a_(AVS vCenter Credentials are accessable within Azure Portal)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{386C194C-D81B-45A5-B307-ECCC6C547F35}" name="Password" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{84917292-4E38-45EE-B342-02A028A3F703}" name="vCenter IP" dataDxfId="14">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".2")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B7C033F2-039C-4E97-855E-C2F49ECF5FBB}" name="vCenter User"/>
-    <tableColumn id="7" xr3:uid="{8B5B57F2-70F8-40AE-BF0B-E77B2556EB63}" name="vCenter Password"/>
-    <tableColumn id="8" xr3:uid="{741662B0-7C71-442F-870F-C84DA359FBED}" name="Web workload IP" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{82CB6D9B-F833-4CA2-8C25-0825C23DB877}" name="App Workload IP" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{0EA7FE88-3BCE-4F97-A73A-8CFEFBE894FE}" name="vCenter User"/>
+    <tableColumn id="7" xr3:uid="{1288D736-DE9F-49E6-AEAF-780BF774A5C7}" name="vCenter Password"/>
+    <tableColumn id="8" xr3:uid="{764DD440-C407-45C6-A331-8384334A62C3}" name="Web workload IP" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{C99BC4B6-D79B-4829-8DA6-A760F30201F5}" name="App Workload IP" dataDxfId="12">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".1",D3,".129/25")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D29BE6B2-E1FE-4B07-8259-A1E4E3444BD1}" name="HCX Manager IP " dataDxfId="11">
+    <tableColumn id="15" xr3:uid="{362F8D1C-7105-4182-B526-B57347A226C1}" name="HCX Manager IP " dataDxfId="11">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".9/27")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{25FDE584-7D02-44C6-88E3-953EF991BAE0}" name="HCX Manager Gateway" dataDxfId="10">
+    <tableColumn id="16" xr3:uid="{4E1CB686-EAB3-4475-AB82-7F422668BB4A}" name="HCX Manager Gateway" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{FEA72B88-FF9A-45EA-A6F5-EF378DB984FB}" name="HCX Network Profile - Management IP Range" dataDxfId="9">
+    <tableColumn id="17" xr3:uid="{1C50A72C-1348-4E49-B2C6-0EB2F360CAB4}" name="HCX Network Profile - Management IP Range" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".10 - 10.",C3,".",D3,".16/27")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{DC3FFB7A-BD67-4AC5-A6CD-E55F29B0B641}" name="Management Gateway" dataDxfId="8">
+    <tableColumn id="18" xr3:uid="{8F92A3C3-564A-4CA8-A93D-E1F6F34EB8F6}" name="Management Gateway" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{43142962-2AC4-4BF9-AB65-0D0B6BA416D2}" name="HCX Network Profile - vMotion IP Range" dataDxfId="7">
+    <tableColumn id="19" xr3:uid="{3F2B449E-E728-43F0-8C95-DD4503AAA1A2}" name="HCX Network Profile - vMotion IP Range" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".74 - 10.",C3,".",D3,".77/27")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8965E125-EC28-48D2-9DB0-215FF99A5F80}" name="HCX Network Profile - vMotion Gateway" dataDxfId="6">
+    <tableColumn id="20" xr3:uid="{2E1E7F5F-1FB7-4B19-A1BD-1135F7E379F4}" name="HCX Network Profile - vMotion Gateway" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".65")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{94F478F5-0C34-4D3B-9A92-27B838CF32AC}" name="  HCX Network Profile - vSphere Replication IP Range" dataDxfId="5">
+    <tableColumn id="21" xr3:uid="{8811A557-C2AA-40D7-A583-921512ACE72E}" name="  HCX Network Profile - vSphere Replication IP Range" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".106 - 10.",C3,".",D3,".109/27")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F00BA5CF-C75D-4AA2-8EAE-51EDCC23D36B}" name="HCX Network Profile - vSphere Replication Gateway" dataDxfId="4">
+    <tableColumn id="22" xr3:uid="{9813AB53-9E39-4746-A13F-ABDB1D42D131}" name="HCX Network Profile - vSphere Replication Gateway" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".97")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{5ACD6DB7-2175-49A5-A598-2AFA46B3886B}" name="HCX Network Profile - Uplink IP Range" dataDxfId="3">
+    <tableColumn id="23" xr3:uid="{5B8FEDE3-3399-4494-8440-C4D80EE80649}" name="HCX Network Profile - Uplink IP Range" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".34 - 10.",C3,".",D3,".40/28")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{585E1873-130B-42D3-BD77-E187D75BE981}" name="HCX Network Profile - Uplink Gateway" dataDxfId="2">
+    <tableColumn id="24" xr3:uid="{13231322-4F9A-443F-A209-7EAE382ED3CA}" name="HCX Network Profile - Uplink Gateway" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT("10.",C3,".",D3,".33")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E2C25B4D-1003-4F56-9F29-A97C6C04A3FB}" name="AVS workload Network" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{D15236B1-FEB2-4E33-A5E2-0B4DEAB81928}" name="AVS DHCP Network" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{67845C66-442A-4493-AE26-E4B9E609BB72}" name="AVS workload Network" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{FBC92426-7925-40E9-8E1E-F1DA583E9698}" name="AVS DHCP Network" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1028,39 +964,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1112,7 +1048,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1164,7 +1100,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1223,13 +1159,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1238,6 +1167,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1302,22 +1238,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9853909C-BFA4-4164-9401-436FC5F691DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0E8061-9D90-47F8-9D9B-E271805A6C96}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,145 +1304,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="60" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="55" t="s">
+      <c r="X2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="2" t="str">
+      <c r="G3" s="18"/>
+      <c r="H3" s="15" t="str">
         <f t="shared" ref="H3:H18" si="0">_xlfn.CONCAT("10.",C3,".",D3,".2")</f>
         <v>10.1.1.2</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="20" t="str">
         <f t="shared" ref="L3:L18" si="1">_xlfn.CONCAT("10.",C3,".1",D3,".129/25")</f>
         <v>10.1.11.129/25</v>
       </c>
-      <c r="M3" s="14" t="str">
+      <c r="M3" s="21" t="str">
         <f t="shared" ref="M3:M18" si="2">_xlfn.CONCAT("10.",C3,".",D3,".9/27")</f>
         <v>10.1.1.9/27</v>
       </c>
@@ -1522,48 +1478,48 @@
         <f t="shared" ref="U3:U18" si="10">_xlfn.CONCAT("10.",C3,".",D3,".34 - 10.",C3,".",D3,".40/28")</f>
         <v>10.1.1.34 - 10.1.1.40/28</v>
       </c>
-      <c r="V3" s="15" t="str">
+      <c r="V3" s="22" t="str">
         <f t="shared" ref="V3:V18" si="11">_xlfn.CONCAT("10.",C3,".",D3,".33")</f>
         <v>10.1.1.33</v>
       </c>
       <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
         <v>31</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.1.2.2</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="15" t="str">
+        <v>29</v>
+      </c>
+      <c r="L4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.1.12.129/25</v>
       </c>
-      <c r="M4" s="14" t="str">
+      <c r="M4" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.1.2.9/27</v>
       </c>
@@ -1599,48 +1555,48 @@
         <f t="shared" si="10"/>
         <v>10.1.2.34 - 10.1.2.40/28</v>
       </c>
-      <c r="V4" s="15" t="str">
+      <c r="V4" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.1.2.33</v>
       </c>
       <c r="W4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" t="s">
         <v>35</v>
-      </c>
-      <c r="X4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.1.3.2</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="15" t="str">
+        <v>29</v>
+      </c>
+      <c r="L5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.1.13.129/25</v>
       </c>
-      <c r="M5" s="14" t="str">
+      <c r="M5" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.1.3.9/27</v>
       </c>
@@ -1676,51 +1632,51 @@
         <f t="shared" si="10"/>
         <v>10.1.3.34 - 10.1.3.40/28</v>
       </c>
-      <c r="V5" s="15" t="str">
+      <c r="V5" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.1.3.33</v>
       </c>
       <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
         <v>39</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="26">
         <v>4</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21" t="str">
+      <c r="G6" s="27"/>
+      <c r="H6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>10.1.4.2</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="24" t="str">
+      <c r="I6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="29" t="str">
         <f t="shared" si="1"/>
         <v>10.1.14.129/25</v>
       </c>
-      <c r="M6" s="14" t="str">
+      <c r="M6" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.1.4.9/27</v>
       </c>
@@ -1756,50 +1712,50 @@
         <f t="shared" si="10"/>
         <v>10.1.4.34 - 10.1.4.40/28</v>
       </c>
-      <c r="V6" s="15" t="str">
+      <c r="V6" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.1.4.33</v>
       </c>
       <c r="W6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s">
         <v>43</v>
-      </c>
-      <c r="X6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="30">
         <v>2</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="31">
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.2.1.2</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>10.2.11.129/25</v>
       </c>
-      <c r="M7" s="14" t="str">
+      <c r="M7" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.2.1.9/27</v>
       </c>
@@ -1835,48 +1791,48 @@
         <f t="shared" si="10"/>
         <v>10.2.1.34 - 10.2.1.40/28</v>
       </c>
-      <c r="V7" s="15" t="str">
+      <c r="V7" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.2.1.33</v>
       </c>
       <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" t="s">
         <v>47</v>
-      </c>
-      <c r="X7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="33">
         <v>2</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.2.2.2</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="15" t="str">
+        <v>29</v>
+      </c>
+      <c r="L8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.2.12.129/25</v>
       </c>
-      <c r="M8" s="14" t="str">
+      <c r="M8" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.2.2.9/27</v>
       </c>
@@ -1912,48 +1868,48 @@
         <f t="shared" si="10"/>
         <v>10.2.2.34 - 10.2.2.40/28</v>
       </c>
-      <c r="V8" s="15" t="str">
+      <c r="V8" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.2.2.33</v>
       </c>
       <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
         <v>51</v>
-      </c>
-      <c r="X8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="33">
         <v>2</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>3</v>
       </c>
       <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.2.3.2</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="15" t="str">
+        <v>29</v>
+      </c>
+      <c r="L9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.2.13.129/25</v>
       </c>
-      <c r="M9" s="14" t="str">
+      <c r="M9" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.2.3.9/27</v>
       </c>
@@ -1989,51 +1945,51 @@
         <f t="shared" si="10"/>
         <v>10.2.3.34 - 10.2.3.40/28</v>
       </c>
-      <c r="V9" s="15" t="str">
+      <c r="V9" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.2.3.33</v>
       </c>
       <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
         <v>55</v>
-      </c>
-      <c r="X9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="35">
         <v>2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>4</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21" t="str">
+      <c r="G10" s="27"/>
+      <c r="H10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>10.2.4.2</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="24" t="str">
+      <c r="I10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="29" t="str">
         <f t="shared" si="1"/>
         <v>10.2.14.129/25</v>
       </c>
-      <c r="M10" s="14" t="str">
+      <c r="M10" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.2.4.9/27</v>
       </c>
@@ -2069,50 +2025,50 @@
         <f t="shared" si="10"/>
         <v>10.2.4.34 - 10.2.4.40/28</v>
       </c>
-      <c r="V10" s="15" t="str">
+      <c r="V10" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.2.4.33</v>
       </c>
       <c r="W10" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" t="s">
         <v>59</v>
-      </c>
-      <c r="X10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="37">
         <v>3</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.3.1.2</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>10.3.11.129/25</v>
       </c>
-      <c r="M11" s="14" t="str">
+      <c r="M11" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.3.1.9/27</v>
       </c>
@@ -2148,48 +2104,48 @@
         <f t="shared" si="10"/>
         <v>10.3.1.34 - 10.3.1.40/28</v>
       </c>
-      <c r="V11" s="15" t="str">
+      <c r="V11" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.3.1.33</v>
       </c>
       <c r="W11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" t="s">
         <v>63</v>
-      </c>
-      <c r="X11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="15">
         <v>2</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="38">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="15">
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.3.2.2</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="15" t="str">
+        <v>29</v>
+      </c>
+      <c r="L12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.3.12.129/25</v>
       </c>
-      <c r="M12" s="14" t="str">
+      <c r="M12" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.3.2.9/27</v>
       </c>
@@ -2225,48 +2181,48 @@
         <f t="shared" si="10"/>
         <v>10.3.2.34 - 10.3.2.40/28</v>
       </c>
-      <c r="V12" s="15" t="str">
+      <c r="V12" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.3.2.33</v>
       </c>
       <c r="W12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X12" t="s">
         <v>67</v>
-      </c>
-      <c r="X12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="38">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="15">
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.3.3.2</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="15" t="str">
+        <v>29</v>
+      </c>
+      <c r="L13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.3.13.129/25</v>
       </c>
-      <c r="M13" s="14" t="str">
+      <c r="M13" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.3.3.9/27</v>
       </c>
@@ -2302,51 +2258,51 @@
         <f t="shared" si="10"/>
         <v>10.3.3.34 - 10.3.3.40/28</v>
       </c>
-      <c r="V13" s="15" t="str">
+      <c r="V13" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.3.3.33</v>
       </c>
       <c r="W13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13" t="s">
         <v>71</v>
-      </c>
-      <c r="X13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="39">
         <v>3</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="26">
         <v>4</v>
       </c>
       <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21" t="str">
+      <c r="G14" s="27"/>
+      <c r="H14" s="26" t="str">
         <f t="shared" si="0"/>
         <v>10.3.4.2</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="24" t="str">
+      <c r="I14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="29" t="str">
         <f t="shared" si="1"/>
         <v>10.3.14.129/25</v>
       </c>
-      <c r="M14" s="14" t="str">
+      <c r="M14" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.3.4.9/27</v>
       </c>
@@ -2382,55 +2338,55 @@
         <f t="shared" si="10"/>
         <v>10.3.4.34 - 10.3.4.40/28</v>
       </c>
-      <c r="V14" s="15" t="str">
+      <c r="V14" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.3.4.33</v>
       </c>
       <c r="W14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" t="s">
         <v>75</v>
-      </c>
-      <c r="X14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="15">
         <v>2</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="40">
         <v>4</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="34">
         <v>1</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.4.1.2</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="J15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="18"/>
       <c r="L15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>10.4.11.129/25</v>
       </c>
-      <c r="M15" s="14" t="str">
+      <c r="M15" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.4.1.9/27</v>
       </c>
@@ -2466,7 +2422,7 @@
         <f t="shared" si="10"/>
         <v>10.4.1.34 - 10.4.1.40/28</v>
       </c>
-      <c r="V15" s="15" t="str">
+      <c r="V15" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.4.1.33</v>
       </c>
@@ -2478,16 +2434,16 @@
       </c>
     </row>
     <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="40">
         <v>4</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <v>2</v>
       </c>
       <c r="E16" t="s">
@@ -2497,23 +2453,23 @@
         <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="2" t="str">
+        <v>78</v>
+      </c>
+      <c r="H16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.4.2.2</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="15" t="str">
+        <v>78</v>
+      </c>
+      <c r="L16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.4.12.129/25</v>
       </c>
-      <c r="M16" s="14" t="str">
+      <c r="M16" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.4.2.9/27</v>
       </c>
@@ -2549,7 +2505,7 @@
         <f t="shared" si="10"/>
         <v>10.4.2.34 - 10.4.2.40/28</v>
       </c>
-      <c r="V16" s="15" t="str">
+      <c r="V16" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.4.2.33</v>
       </c>
@@ -2561,16 +2517,16 @@
       </c>
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="15">
         <v>2</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="40">
         <v>4</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="34">
         <v>3</v>
       </c>
       <c r="E17" t="s">
@@ -2580,23 +2536,23 @@
         <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="2" t="str">
+        <v>78</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.4.3.2</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="15" t="str">
+        <v>78</v>
+      </c>
+      <c r="L17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.4.13.129/25</v>
       </c>
-      <c r="M17" s="14" t="str">
+      <c r="M17" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.4.3.9/27</v>
       </c>
@@ -2632,7 +2588,7 @@
         <f t="shared" si="10"/>
         <v>10.4.3.34 - 10.4.3.40/28</v>
       </c>
-      <c r="V17" s="15" t="str">
+      <c r="V17" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.4.3.33</v>
       </c>
@@ -2644,42 +2600,42 @@
       </c>
     </row>
     <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="40">
         <v>4</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>4</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="27" t="s">
         <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="2" t="str">
+        <v>78</v>
+      </c>
+      <c r="H18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10.4.4.2</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="15" t="str">
+        <v>78</v>
+      </c>
+      <c r="L18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>10.4.14.129/25</v>
       </c>
-      <c r="M18" s="14" t="str">
+      <c r="M18" s="21" t="str">
         <f t="shared" si="2"/>
         <v>10.4.4.9/27</v>
       </c>
@@ -2715,7 +2671,7 @@
         <f t="shared" si="10"/>
         <v>10.4.4.34 - 10.4.4.40/28</v>
       </c>
-      <c r="V18" s="15" t="str">
+      <c r="V18" s="22" t="str">
         <f t="shared" si="11"/>
         <v>10.4.4.33</v>
       </c>
@@ -2727,108 +2683,108 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="5" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="63" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="40" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="8" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
     </row>
     <row r="21" spans="1:24" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="F25" s="1"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="50" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2836,7 +2792,7 @@
       <c r="C28" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="24" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2847,192 +2803,25 @@
     <mergeCell ref="M1:V1"/>
     <mergeCell ref="C20:D20"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{584174F6-25B9-47D8-A40E-E4CF5E87FA55}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{DE93DEEF-79DE-4E62-8316-3FF2B95CCBDC}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{7536AF4E-3045-4CD8-A18F-340CDF196BAC}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{BD1FDC53-B576-4B2B-8BB4-99CA768C9A1A}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{053CDAFA-8FD1-4C24-83A7-0A0A818E7A96}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{36AED807-7F94-48A9-8D7C-A3209EACFDBD}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{1449F27C-E342-4FAA-93A2-F6A3215CAFC7}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{4451A652-767A-4B79-AAD4-95B5CA1A7F76}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{E56189F6-D5E8-436E-9606-93F0A2589D63}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{D49B7033-FB14-417C-A6FB-CC4DF435BEF9}"/>
-    <hyperlink ref="F11" r:id="rId11" xr:uid="{D4525B12-B2A9-44C2-8BDB-4B63E1472FF5}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{D627411D-004F-48A6-9983-F6FBEE89796C}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{4D831F19-9F91-4639-A61C-48B775A45F07}"/>
-    <hyperlink ref="F14" r:id="rId14" xr:uid="{D4ECB0F9-A43A-4A55-BCB3-79178A9DA611}"/>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{BCB8467F-059B-4243-8C15-A4D30AE2AABA}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{6DA29118-8645-4524-B7F9-1891C4148BEA}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{1D2AE0D5-C843-486F-9D81-E37D4D1B1EC2}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{CACEB4B1-8B58-473A-B749-B3E3DF745A75}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{3BE33F2A-0B16-41CC-AD5E-4BFB75D7A59C}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{E5E30AEF-6BA5-41B0-99C2-D274E920A01A}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{936AC6A5-7D74-4FEF-816F-C4F5AA368118}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{A9755197-A6FB-4BC6-AA4E-A38843174EDC}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{DDB33FDE-5D8F-4D87-8DF9-D68E08C67D9F}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{C9910681-055B-4C88-93E2-550A59C61334}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{5C1D7233-D9B7-44EA-A116-46762D652A51}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{67044FD7-F755-4C71-B7EA-D7D66AC2F7E7}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{C70710BF-1872-472B-9016-805F978FEFCD}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{4DE18356-AFF3-4DA4-B46B-C189A98A3A0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA323FDA-1F54-47BA-892A-0DF7AE4D0E70}">
-  <dimension ref="I22:P26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="I22:P26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="12" max="12" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="22" spans="9:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="I22" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I23" s="31">
-        <v>3</v>
-      </c>
-      <c r="J23" s="41">
-        <v>1</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" s="43" t="str">
-        <f t="shared" ref="L23:L26" si="0">_xlfn.CONCAT("Group",I23,"@vmwaresales101outlook.onmicrosoft.com")</f>
-        <v>Group3@vmwaresales101outlook.onmicrosoft.com</v>
-      </c>
-      <c r="M23" s="44" t="str">
-        <f t="shared" ref="M23:M26" si="1">_xlfn.CONCAT("Ahead",I23,"-AVS!")</f>
-        <v>Ahead3-AVS!</v>
-      </c>
-      <c r="N23" s="41" t="str">
-        <f t="shared" ref="N23:N26" si="2">_xlfn.CONCAT("10.",I23,".",J23,".2")</f>
-        <v>10.3.1.2</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I24" s="32">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Group3@vmwaresales101outlook.onmicrosoft.com</v>
-      </c>
-      <c r="M24" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>Ahead3-AVS!</v>
-      </c>
-      <c r="N24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10.3.2.2</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I25" s="32">
-        <v>3</v>
-      </c>
-      <c r="J25" s="45">
-        <v>3</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>Group3@vmwaresales101outlook.onmicrosoft.com</v>
-      </c>
-      <c r="M25" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>Ahead3-AVS!</v>
-      </c>
-      <c r="N25" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v>10.3.3.2</v>
-      </c>
-      <c r="O25" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I26" s="33">
-        <v>3</v>
-      </c>
-      <c r="J26" s="21">
-        <v>4</v>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Group3@vmwaresales101outlook.onmicrosoft.com</v>
-      </c>
-      <c r="M26" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Ahead3-AVS!</v>
-      </c>
-      <c r="N26" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>10.3.4.2</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>